--- a/biology/Zoologie/Fosterovenator/Fosterovenator.xlsx
+++ b/biology/Zoologie/Fosterovenator/Fosterovenator.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,11 +490,13 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Fosterovenator churei
-Fosterovenator (signifiant « chasseur de Foster ») est un genre éteint de dinosaures du clade des Ceratosauria de la famille des Ceratosauridae[1] connu de la formation Morrison du Jurassique supérieur du Wyoming, Etats-Unis. L'holotype est YPM VP 058267A, B, et C, un tibia avec un astragale articulé. Un spécimen supplémentaire est connu, le paratype YPM VP 058267D, une fibula d'un individu plus grand[2].
-Les restes de l'holotype ont été découverts en 1879 par Arthur Lakes à Como Bluff, Wyoming, et consistent en un tibia droit presque complet avec un astragale co-ossifié, probablement d'un juvénile. Le paratype consiste en une fibula droite complète mesurant 27,5 cm de long et appartenant à un individu beaucoup plus grand. La forme générale du matériel connu est similaire à celle de Elaphrosaurus[2], mais les affinités avec les Ceratosauria de Fosterovenator (du moins du paratype) ont été remises en question[3].
+Fosterovenator (signifiant « chasseur de Foster ») est un genre éteint de dinosaures du clade des Ceratosauria de la famille des Ceratosauridae connu de la formation Morrison du Jurassique supérieur du Wyoming, Etats-Unis. L'holotype est YPM VP 058267A, B, et C, un tibia avec un astragale articulé. Un spécimen supplémentaire est connu, le paratype YPM VP 058267D, une fibula d'un individu plus grand.
+Les restes de l'holotype ont été découverts en 1879 par Arthur Lakes à Como Bluff, Wyoming, et consistent en un tibia droit presque complet avec un astragale co-ossifié, probablement d'un juvénile. Le paratype consiste en une fibula droite complète mesurant 27,5 cm de long et appartenant à un individu beaucoup plus grand. La forme générale du matériel connu est similaire à celle de Elaphrosaurus, mais les affinités avec les Ceratosauria de Fosterovenator (du moins du paratype) ont été remises en question.
 </t>
         </is>
       </c>
@@ -513,9 +525,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le type et seule espèce est Fosterovenator churei[4]. Le nom générique Fosterovenator a été nommé en 2014 par S. G. Dalman pour John Russell Foster et le mot latin venator (« chasseur »). Le nom spécifique churei est nommé pour Daniel J. Chure[2].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le type et seule espèce est Fosterovenator churei. Le nom générique Fosterovenator a été nommé en 2014 par S. G. Dalman pour John Russell Foster et le mot latin venator (« chasseur »). Le nom spécifique churei est nommé pour Daniel J. Chure.
 </t>
         </is>
       </c>
